--- a/artfynd/A 43982-2020.xlsx
+++ b/artfynd/A 43982-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79943394</v>
+        <v>79942910</v>
       </c>
       <c r="B2" t="n">
-        <v>89388</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>589690.8435141124</v>
+        <v>585292.1374542434</v>
       </c>
       <c r="R2" t="n">
-        <v>7276845.884674602</v>
+        <v>7279974.189699404</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -750,7 +755,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +765,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -785,17 +790,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79943408</v>
+        <v>79942866</v>
       </c>
       <c r="B3" t="n">
-        <v>89406</v>
+        <v>89832</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>589507.1466949629</v>
+        <v>585326.870529952</v>
       </c>
       <c r="R3" t="n">
-        <v>7276944.904223671</v>
+        <v>7279904.943266066</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -862,7 +867,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +877,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -897,17 +902,17 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79943392</v>
+        <v>79943089</v>
       </c>
       <c r="B4" t="n">
-        <v>89388</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +925,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>589530.1636141326</v>
+        <v>585373.1979340216</v>
       </c>
       <c r="R4" t="n">
-        <v>7276897.197921986</v>
+        <v>7280031.967418544</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -974,7 +979,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +989,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1009,17 +1014,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>79942910</v>
+        <v>79943113</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>81236</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,39 +1037,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>585292.1374542434</v>
+        <v>585361.1899865948</v>
       </c>
       <c r="R5" t="n">
-        <v>7279974.189699404</v>
+        <v>7279877.84656055</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79942866</v>
+        <v>79942911</v>
       </c>
       <c r="B6" t="n">
-        <v>89832</v>
+        <v>56395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,38 +1145,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>585326.870529952</v>
+        <v>585374.0456135425</v>
       </c>
       <c r="R6" t="n">
-        <v>7279904.943266066</v>
+        <v>7279848.876788034</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1245,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>79943089</v>
+        <v>79942857</v>
       </c>
       <c r="B7" t="n">
-        <v>89410</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1262,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>585373.1979340216</v>
+        <v>585494.1636446721</v>
       </c>
       <c r="R7" t="n">
-        <v>7280031.967418544</v>
+        <v>7279691.204060021</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1357,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79943206</v>
+        <v>79943047</v>
       </c>
       <c r="B8" t="n">
-        <v>89356</v>
+        <v>89388</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,25 +1374,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>589570.0073427379</v>
+        <v>585313.0156590425</v>
       </c>
       <c r="R8" t="n">
-        <v>7277457.867683646</v>
+        <v>7280038.046518854</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1427,7 +1432,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1437,7 +1442,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1462,17 +1467,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79943444</v>
+        <v>79942909</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1485,34 +1490,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>589554.943145882</v>
+        <v>585386.8205247722</v>
       </c>
       <c r="R9" t="n">
-        <v>7277529.806778679</v>
+        <v>7279976.98105674</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1539,7 +1549,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1549,7 +1559,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1574,17 +1584,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79943313</v>
+        <v>79943088</v>
       </c>
       <c r="B10" t="n">
-        <v>89673</v>
+        <v>89410</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1597,21 +1607,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1621,10 +1631,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>589542.1327874708</v>
+        <v>585527.0392410912</v>
       </c>
       <c r="R10" t="n">
-        <v>7277475.210991381</v>
+        <v>7279671.092114902</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1651,7 +1661,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1661,7 +1671,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1686,17 +1696,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79943281</v>
+        <v>79942868</v>
       </c>
       <c r="B11" t="n">
-        <v>78570</v>
+        <v>89392</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,21 +1719,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1733,10 +1743,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>588979.0404738871</v>
+        <v>585326.870529952</v>
       </c>
       <c r="R11" t="n">
-        <v>7277291.951201972</v>
+        <v>7279904.943266066</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1763,7 +1773,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1773,7 +1783,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1798,17 +1808,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>79943331</v>
+        <v>79943049</v>
       </c>
       <c r="B12" t="n">
-        <v>89673</v>
+        <v>89388</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1821,21 +1831,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1855,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>589659.8740260819</v>
+        <v>585494.01727856</v>
       </c>
       <c r="R12" t="n">
-        <v>7277204.112541795</v>
+        <v>7279696.16041487</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1875,7 +1885,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1885,7 +1895,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1910,17 +1920,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>79943113</v>
+        <v>79943101</v>
       </c>
       <c r="B13" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1933,21 +1943,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1967,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>585361.1899865948</v>
+        <v>585294.8361319848</v>
       </c>
       <c r="R13" t="n">
-        <v>7279877.84656055</v>
+        <v>7280023.043874295</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2029,10 +2039,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>79943442</v>
+        <v>79942867</v>
       </c>
       <c r="B14" t="n">
-        <v>89410</v>
+        <v>89673</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,21 +2055,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2079,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>589549.9356220814</v>
+        <v>585326.870529952</v>
       </c>
       <c r="R14" t="n">
-        <v>7277691.831980103</v>
+        <v>7279904.943266066</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2099,7 +2109,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2109,7 +2119,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2134,17 +2144,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>79942911</v>
+        <v>79942968</v>
       </c>
       <c r="B15" t="n">
-        <v>56395</v>
+        <v>89673</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,39 +2167,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>585374.0456135425</v>
+        <v>585310.0713047428</v>
       </c>
       <c r="R15" t="n">
-        <v>7279848.876788034</v>
+        <v>7280095.826642063</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2258,10 +2263,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>79943304</v>
+        <v>79943111</v>
       </c>
       <c r="B16" t="n">
-        <v>89832</v>
+        <v>81236</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2270,25 +2275,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1209</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2298,10 +2303,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>589425.0616486694</v>
+        <v>585519.8252882877</v>
       </c>
       <c r="R16" t="n">
-        <v>7277054.099227288</v>
+        <v>7279691.135207092</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2328,7 +2333,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2338,7 +2343,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2363,17 +2368,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>79943285</v>
+        <v>79943112</v>
       </c>
       <c r="B17" t="n">
-        <v>78570</v>
+        <v>81236</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2386,21 +2391,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2410,10 +2415,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>589602.9733464459</v>
+        <v>585295.1898950259</v>
       </c>
       <c r="R17" t="n">
-        <v>7277182.077291708</v>
+        <v>7279968.906110913</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2440,7 +2445,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2450,7 +2455,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2475,17 +2480,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>79943216</v>
+        <v>79942967</v>
       </c>
       <c r="B18" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2498,21 +2503,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2522,10 +2527,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>588960.1478725597</v>
+        <v>585376.0596536973</v>
       </c>
       <c r="R18" t="n">
-        <v>7277273.165511274</v>
+        <v>7279948.969181458</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2552,7 +2557,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2562,7 +2567,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2587,17 +2592,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>79943286</v>
+        <v>79943046</v>
       </c>
       <c r="B19" t="n">
-        <v>78570</v>
+        <v>89388</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2610,21 +2615,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2634,10 +2639,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>589667.9639945865</v>
+        <v>585373.1965843438</v>
       </c>
       <c r="R19" t="n">
-        <v>7277223.810587513</v>
+        <v>7280060.074400178</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2664,7 +2669,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2674,7 +2679,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2699,17 +2704,17 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>79943391</v>
+        <v>79942898</v>
       </c>
       <c r="B20" t="n">
-        <v>89388</v>
+        <v>56395</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2722,34 +2727,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>589480.8066033333</v>
+        <v>585356.9821481397</v>
       </c>
       <c r="R20" t="n">
-        <v>7276992.921087339</v>
+        <v>7279880.202658477</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2776,7 +2786,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2786,7 +2796,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2019-09-10</t>
+          <t>2019-09-12</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2811,17 +2821,17 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>79942857</v>
+        <v>79943045</v>
       </c>
       <c r="B21" t="n">
-        <v>89356</v>
+        <v>89388</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2830,25 +2840,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>1108</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2858,10 +2868,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585494.1636446721</v>
+        <v>585386.01796271</v>
       </c>
       <c r="R21" t="n">
-        <v>7279691.204060021</v>
+        <v>7279976.130686237</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2930,7 +2940,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>79943047</v>
+        <v>79943048</v>
       </c>
       <c r="B22" t="n">
         <v>89388</v>
@@ -2970,10 +2980,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585313.0156590425</v>
+        <v>585398.0404714869</v>
       </c>
       <c r="R22" t="n">
-        <v>7280038.046518854</v>
+        <v>7279835.116659765</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3042,10 +3052,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>79942909</v>
+        <v>79943281</v>
       </c>
       <c r="B23" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3058,39 +3068,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>585386.8205247722</v>
+        <v>588979.0404738871</v>
       </c>
       <c r="R23" t="n">
-        <v>7279976.98105674</v>
+        <v>7277291.951201972</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3117,7 +3122,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3127,7 +3132,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3152,17 +3157,17 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>79943088</v>
+        <v>79943216</v>
       </c>
       <c r="B24" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3175,21 +3180,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3199,10 +3204,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>585527.0392410912</v>
+        <v>588960.1478725597</v>
       </c>
       <c r="R24" t="n">
-        <v>7279671.092114902</v>
+        <v>7277273.165511274</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3229,7 +3234,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3239,7 +3244,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3264,14 +3269,14 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>79943395</v>
+        <v>79943387</v>
       </c>
       <c r="B25" t="n">
         <v>89388</v>
@@ -3311,10 +3316,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>589811.140926973</v>
+        <v>588906.1639377811</v>
       </c>
       <c r="R25" t="n">
-        <v>7277121.900391096</v>
+        <v>7277182.96151262</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3383,10 +3388,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79943241</v>
+        <v>79943386</v>
       </c>
       <c r="B26" t="n">
-        <v>56395</v>
+        <v>89388</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3399,39 +3404,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>589513.9627399336</v>
+        <v>588987.967458096</v>
       </c>
       <c r="R26" t="n">
-        <v>7276912.00904297</v>
+        <v>7277298.01800216</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>79943329</v>
+        <v>79943394</v>
       </c>
       <c r="B27" t="n">
-        <v>89673</v>
+        <v>89388</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3516,21 +3516,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3540,10 +3540,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>589434.9821090577</v>
+        <v>589690.8435141124</v>
       </c>
       <c r="R27" t="n">
-        <v>7277054.819139729</v>
+        <v>7276845.884674602</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3612,10 +3612,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>79942868</v>
+        <v>79943408</v>
       </c>
       <c r="B28" t="n">
-        <v>89392</v>
+        <v>89406</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3628,21 +3628,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3652,10 +3652,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585326.870529952</v>
+        <v>589507.1466949629</v>
       </c>
       <c r="R28" t="n">
-        <v>7279904.943266066</v>
+        <v>7276944.904223671</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3717,14 +3717,14 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>79943049</v>
+        <v>79943392</v>
       </c>
       <c r="B29" t="n">
         <v>89388</v>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585494.01727856</v>
+        <v>589530.1636141326</v>
       </c>
       <c r="R29" t="n">
-        <v>7279696.16041487</v>
+        <v>7276897.197921986</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3829,17 +3829,17 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>79943306</v>
+        <v>79943206</v>
       </c>
       <c r="B30" t="n">
-        <v>89832</v>
+        <v>89356</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3848,25 +3848,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>589757.789192843</v>
+        <v>589570.0073427379</v>
       </c>
       <c r="R30" t="n">
-        <v>7277159.144151862</v>
+        <v>7277457.867683646</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>79943101</v>
+        <v>79943444</v>
       </c>
       <c r="B31" t="n">
         <v>77506</v>
@@ -3988,10 +3988,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>585294.8361319848</v>
+        <v>589554.943145882</v>
       </c>
       <c r="R31" t="n">
-        <v>7280023.043874295</v>
+        <v>7277529.806778679</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4053,17 +4053,17 @@
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>79943400</v>
+        <v>79943313</v>
       </c>
       <c r="B32" t="n">
-        <v>89388</v>
+        <v>89673</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4076,21 +4076,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>589551.0069842652</v>
+        <v>589542.1327874708</v>
       </c>
       <c r="R32" t="n">
-        <v>7277482.932597979</v>
+        <v>7277475.210991381</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>79942867</v>
+        <v>79943331</v>
       </c>
       <c r="B33" t="n">
         <v>89673</v>
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585326.870529952</v>
+        <v>589659.8740260819</v>
       </c>
       <c r="R33" t="n">
-        <v>7279904.943266066</v>
+        <v>7277204.112541795</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4277,17 +4277,17 @@
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>79943314</v>
+        <v>79943442</v>
       </c>
       <c r="B34" t="n">
-        <v>89673</v>
+        <v>89410</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4300,21 +4300,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4324,10 +4324,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>589757.789192843</v>
+        <v>589549.9356220814</v>
       </c>
       <c r="R34" t="n">
-        <v>7277159.144151862</v>
+        <v>7277691.831980103</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>79942968</v>
+        <v>79943304</v>
       </c>
       <c r="B35" t="n">
-        <v>89673</v>
+        <v>89832</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4408,25 +4408,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4436,10 +4436,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585310.0713047428</v>
+        <v>589425.0616486694</v>
       </c>
       <c r="R35" t="n">
-        <v>7280095.826642063</v>
+        <v>7277054.099227288</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4501,14 +4501,14 @@
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>79943287</v>
+        <v>79943285</v>
       </c>
       <c r="B36" t="n">
         <v>78570</v>
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>589622.0329875128</v>
+        <v>589602.9733464459</v>
       </c>
       <c r="R36" t="n">
-        <v>7277423.066333058</v>
+        <v>7277182.077291708</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4620,10 +4620,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>79943240</v>
+        <v>79943286</v>
       </c>
       <c r="B37" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4636,39 +4636,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>589485.9501239588</v>
+        <v>589667.9639945865</v>
       </c>
       <c r="R37" t="n">
-        <v>7277014.18420134</v>
+        <v>7277223.810587513</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4737,10 +4732,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>79943243</v>
+        <v>79943391</v>
       </c>
       <c r="B38" t="n">
-        <v>56395</v>
+        <v>89388</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4753,39 +4748,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>589647.052397261</v>
+        <v>589480.8066033333</v>
       </c>
       <c r="R38" t="n">
-        <v>7277190.061021971</v>
+        <v>7276992.921087339</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4854,10 +4844,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>79943111</v>
+        <v>79943395</v>
       </c>
       <c r="B39" t="n">
-        <v>81236</v>
+        <v>89388</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4870,21 +4860,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1312</v>
+        <v>1108</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4894,10 +4884,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>585519.8252882877</v>
+        <v>589811.140926973</v>
       </c>
       <c r="R39" t="n">
-        <v>7279691.135207092</v>
+        <v>7277121.900391096</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4924,7 +4914,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -4934,7 +4924,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -4959,17 +4949,17 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>79943387</v>
+        <v>79943241</v>
       </c>
       <c r="B40" t="n">
-        <v>89388</v>
+        <v>56395</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4982,34 +4972,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>588906.1639377811</v>
+        <v>589513.9627399336</v>
       </c>
       <c r="R40" t="n">
-        <v>7277182.96151262</v>
+        <v>7276912.00904297</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5078,10 +5073,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>79943112</v>
+        <v>79943329</v>
       </c>
       <c r="B41" t="n">
-        <v>81236</v>
+        <v>89673</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5094,21 +5089,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5118,10 +5113,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>585295.1898950259</v>
+        <v>589434.9821090577</v>
       </c>
       <c r="R41" t="n">
-        <v>7279968.906110913</v>
+        <v>7277054.819139729</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5148,7 +5143,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5158,7 +5153,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5183,17 +5178,17 @@
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>79943217</v>
+        <v>79943306</v>
       </c>
       <c r="B42" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5202,25 +5197,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5230,10 +5225,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>589561.8866421618</v>
+        <v>589757.789192843</v>
       </c>
       <c r="R42" t="n">
-        <v>7277733.986068156</v>
+        <v>7277159.144151862</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5302,10 +5297,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>79943410</v>
+        <v>79943400</v>
       </c>
       <c r="B43" t="n">
-        <v>89406</v>
+        <v>89388</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5318,21 +5313,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5342,10 +5337,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>589481.0874009161</v>
+        <v>589551.0069842652</v>
       </c>
       <c r="R43" t="n">
-        <v>7276983.82588868</v>
+        <v>7277482.932597979</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5414,10 +5409,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>79943397</v>
+        <v>79943314</v>
       </c>
       <c r="B44" t="n">
-        <v>89388</v>
+        <v>89673</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5430,21 +5425,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5454,10 +5449,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>589684.9169230465</v>
+        <v>589757.789192843</v>
       </c>
       <c r="R44" t="n">
-        <v>7277331.91614513</v>
+        <v>7277159.144151862</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5526,10 +5521,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>79942967</v>
+        <v>79943287</v>
       </c>
       <c r="B45" t="n">
-        <v>89673</v>
+        <v>78570</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5542,21 +5537,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>658</v>
+        <v>2081</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5566,10 +5561,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>585376.0596536973</v>
+        <v>589622.0329875128</v>
       </c>
       <c r="R45" t="n">
-        <v>7279948.969181458</v>
+        <v>7277423.066333058</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5596,7 +5591,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5606,7 +5601,7 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
@@ -5631,17 +5626,17 @@
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>79943348</v>
+        <v>79943240</v>
       </c>
       <c r="B46" t="n">
-        <v>89742</v>
+        <v>56395</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5650,38 +5645,43 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1506</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>589556.0558720693</v>
+        <v>589485.9501239588</v>
       </c>
       <c r="R46" t="n">
-        <v>7277668.025692596</v>
+        <v>7277014.18420134</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>79943242</v>
+        <v>79943243</v>
       </c>
       <c r="B47" t="n">
         <v>56395</v>
@@ -5795,10 +5795,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>589728.0317797994</v>
+        <v>589647.052397261</v>
       </c>
       <c r="R47" t="n">
-        <v>7276849.104830083</v>
+        <v>7277190.061021971</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5867,10 +5867,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>79943284</v>
+        <v>79943217</v>
       </c>
       <c r="B48" t="n">
-        <v>78570</v>
+        <v>89392</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5883,21 +5883,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5907,10 +5907,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>589664.1011987233</v>
+        <v>589561.8866421618</v>
       </c>
       <c r="R48" t="n">
-        <v>7277161.209545737</v>
+        <v>7277733.986068156</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5979,10 +5979,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>79943207</v>
+        <v>79943410</v>
       </c>
       <c r="B49" t="n">
-        <v>89356</v>
+        <v>89406</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5991,25 +5991,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6019,10 +6019,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>589542.1327874708</v>
+        <v>589481.0874009161</v>
       </c>
       <c r="R49" t="n">
-        <v>7277475.210991381</v>
+        <v>7276983.82588868</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6091,10 +6091,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>79943288</v>
+        <v>79943397</v>
       </c>
       <c r="B50" t="n">
-        <v>78570</v>
+        <v>89388</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6107,21 +6107,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6131,10 +6131,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>589541.9360985477</v>
+        <v>589684.9169230465</v>
       </c>
       <c r="R50" t="n">
-        <v>7277468.171264417</v>
+        <v>7277331.91614513</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6203,10 +6203,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>79943277</v>
+        <v>79943348</v>
       </c>
       <c r="B51" t="n">
-        <v>90160</v>
+        <v>89742</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6219,21 +6219,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>918</v>
+        <v>1506</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tajgaskinn</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Laurilia sulcata</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Burt) Pouzar</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6243,10 +6243,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>589548.8740011391</v>
+        <v>589556.0558720693</v>
       </c>
       <c r="R51" t="n">
-        <v>7277484.935393713</v>
+        <v>7277668.025692596</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6315,10 +6315,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>79943386</v>
+        <v>79943242</v>
       </c>
       <c r="B52" t="n">
-        <v>89388</v>
+        <v>56395</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6331,34 +6331,39 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>588987.967458096</v>
+        <v>589728.0317797994</v>
       </c>
       <c r="R52" t="n">
-        <v>7277298.01800216</v>
+        <v>7276849.104830083</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6427,7 +6432,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>79943282</v>
+        <v>79943284</v>
       </c>
       <c r="B53" t="n">
         <v>78570</v>
@@ -6467,10 +6472,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>589488.0578667852</v>
+        <v>589664.1011987233</v>
       </c>
       <c r="R53" t="n">
-        <v>7277013.007853182</v>
+        <v>7277161.209545737</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6539,10 +6544,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>79943289</v>
+        <v>79943207</v>
       </c>
       <c r="B54" t="n">
-        <v>73698</v>
+        <v>89356</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6551,25 +6556,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1467</v>
+        <v>5447</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6579,10 +6584,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>589655.8654275815</v>
+        <v>589542.1327874708</v>
       </c>
       <c r="R54" t="n">
-        <v>7276838.181177034</v>
+        <v>7277475.210991381</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6651,10 +6656,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>79943046</v>
+        <v>79943288</v>
       </c>
       <c r="B55" t="n">
-        <v>89388</v>
+        <v>78570</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6667,21 +6672,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6691,10 +6696,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>585373.1965843438</v>
+        <v>589541.9360985477</v>
       </c>
       <c r="R55" t="n">
-        <v>7280060.074400178</v>
+        <v>7277468.171264417</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6721,7 +6726,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6731,7 +6736,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6756,17 +6761,17 @@
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>79942898</v>
+        <v>79943277</v>
       </c>
       <c r="B56" t="n">
-        <v>56395</v>
+        <v>90160</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6775,43 +6780,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>918</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tajgaskinn</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Laurilia sulcata</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Burt) Pouzar</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Gammelskogsområdet kring Groddnaliden-Stabburträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>585356.9821481397</v>
+        <v>589548.8740011391</v>
       </c>
       <c r="R56" t="n">
-        <v>7279880.202658477</v>
+        <v>7277484.935393713</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -6873,17 +6873,17 @@
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>79943045</v>
+        <v>79943282</v>
       </c>
       <c r="B57" t="n">
-        <v>89388</v>
+        <v>78570</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6896,21 +6896,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6920,10 +6920,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>585386.01796271</v>
+        <v>589488.0578667852</v>
       </c>
       <c r="R57" t="n">
-        <v>7279976.130686237</v>
+        <v>7277013.007853182</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -6985,17 +6985,17 @@
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>79943330</v>
+        <v>79943289</v>
       </c>
       <c r="B58" t="n">
-        <v>89673</v>
+        <v>73698</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7008,21 +7008,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>658</v>
+        <v>1467</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7032,10 +7032,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>589557.0470050372</v>
+        <v>589655.8654275815</v>
       </c>
       <c r="R58" t="n">
-        <v>7276845.058269233</v>
+        <v>7276838.181177034</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7104,10 +7104,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>79943305</v>
+        <v>79943330</v>
       </c>
       <c r="B59" t="n">
-        <v>89832</v>
+        <v>89673</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7116,25 +7116,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7144,10 +7144,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>589692.8862432485</v>
+        <v>589557.0470050372</v>
       </c>
       <c r="R59" t="n">
-        <v>7277301.957761745</v>
+        <v>7276845.058269233</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -7216,10 +7216,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>79943048</v>
+        <v>79943305</v>
       </c>
       <c r="B60" t="n">
-        <v>89388</v>
+        <v>89832</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7228,25 +7228,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1108</v>
+        <v>1209</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7256,10 +7256,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>585398.0404714869</v>
+        <v>589692.8862432485</v>
       </c>
       <c r="R60" t="n">
-        <v>7279835.116659765</v>
+        <v>7277301.957761745</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2019-09-12</t>
+          <t>2019-09-10</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Emil Larsson, Ingalill  Larsson, Anton Larsson</t>
+          <t>Emil Larsson, Ingalill  Larsson</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
